--- a/natmiOut/OldD7/LR-pairs_lrc2p/Kitl-Kit.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Kitl-Kit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>192.223006353583</v>
+        <v>206.926473</v>
       </c>
       <c r="H2">
-        <v>192.223006353583</v>
+        <v>620.779419</v>
       </c>
       <c r="I2">
-        <v>0.917239056523513</v>
+        <v>0.8815216823402787</v>
       </c>
       <c r="J2">
-        <v>0.917239056523513</v>
+        <v>0.8815216823402787</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.1473740544204</v>
+        <v>24.596449</v>
       </c>
       <c r="N2">
-        <v>17.1473740544204</v>
+        <v>73.78934699999999</v>
       </c>
       <c r="O2">
-        <v>0.9544809725651613</v>
+        <v>0.9486446866357434</v>
       </c>
       <c r="P2">
-        <v>0.9544809725651613</v>
+        <v>0.9486446866357433</v>
       </c>
       <c r="Q2">
-        <v>3296.119791810117</v>
+        <v>5089.656439894376</v>
       </c>
       <c r="R2">
-        <v>3296.119791810117</v>
+        <v>45806.90795904939</v>
       </c>
       <c r="S2">
-        <v>0.8754872267453137</v>
+        <v>0.8362508601063071</v>
       </c>
       <c r="T2">
-        <v>0.8754872267453137</v>
+        <v>0.836250860106307</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>192.223006353583</v>
+        <v>206.926473</v>
       </c>
       <c r="H3">
-        <v>192.223006353583</v>
+        <v>620.779419</v>
       </c>
       <c r="I3">
-        <v>0.917239056523513</v>
+        <v>0.8815216823402787</v>
       </c>
       <c r="J3">
-        <v>0.917239056523513</v>
+        <v>0.8815216823402787</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.715570139576844</v>
+        <v>0.01112833333333333</v>
       </c>
       <c r="N3">
-        <v>0.715570139576844</v>
+        <v>0.033385</v>
       </c>
       <c r="O3">
-        <v>0.03983105988090491</v>
+        <v>0.0004292015602649837</v>
       </c>
       <c r="P3">
-        <v>0.03983105988090491</v>
+        <v>0.0004292015602649837</v>
       </c>
       <c r="Q3">
-        <v>137.549043486314</v>
+        <v>2.302746767034999</v>
       </c>
       <c r="R3">
-        <v>137.549043486314</v>
+        <v>20.724720903315</v>
       </c>
       <c r="S3">
-        <v>0.03653460378549277</v>
+        <v>0.000378350481467861</v>
       </c>
       <c r="T3">
-        <v>0.03653460378549277</v>
+        <v>0.000378350481467861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>192.223006353583</v>
+        <v>206.926473</v>
       </c>
       <c r="H4">
-        <v>192.223006353583</v>
+        <v>620.779419</v>
       </c>
       <c r="I4">
-        <v>0.917239056523513</v>
+        <v>0.8815216823402787</v>
       </c>
       <c r="J4">
-        <v>0.917239056523513</v>
+        <v>0.8815216823402787</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.102185072369319</v>
+        <v>0.8912923333333334</v>
       </c>
       <c r="N4">
-        <v>0.102185072369319</v>
+        <v>2.673877</v>
       </c>
       <c r="O4">
-        <v>0.005687967553933769</v>
+        <v>0.03437568310189169</v>
       </c>
       <c r="P4">
-        <v>0.005687967553933769</v>
+        <v>0.03437568310189169</v>
       </c>
       <c r="Q4">
-        <v>19.64232181528894</v>
+        <v>184.431978948607</v>
       </c>
       <c r="R4">
-        <v>19.64232181528894</v>
+        <v>1659.887810537463</v>
       </c>
       <c r="S4">
-        <v>0.005217225992706564</v>
+        <v>0.03030290999957585</v>
       </c>
       <c r="T4">
-        <v>0.005217225992706564</v>
+        <v>0.03030290999957585</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.37533553531486</v>
+        <v>206.926473</v>
       </c>
       <c r="H5">
-        <v>5.37533553531486</v>
+        <v>620.779419</v>
       </c>
       <c r="I5">
-        <v>0.02564972730600315</v>
+        <v>0.8815216823402787</v>
       </c>
       <c r="J5">
-        <v>0.02564972730600315</v>
+        <v>0.8815216823402787</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.1473740544204</v>
+        <v>0.4291193333333334</v>
       </c>
       <c r="N5">
-        <v>17.1473740544204</v>
+        <v>1.287358</v>
       </c>
       <c r="O5">
-        <v>0.9544809725651613</v>
+        <v>0.01655042870210002</v>
       </c>
       <c r="P5">
-        <v>0.9544809725651613</v>
+        <v>0.01655042870210001</v>
       </c>
       <c r="Q5">
-        <v>92.17288909206202</v>
+        <v>88.796150142778</v>
       </c>
       <c r="R5">
-        <v>92.17288909206202</v>
+        <v>799.165351285002</v>
       </c>
       <c r="S5">
-        <v>0.02448217666506506</v>
+        <v>0.01458956175292804</v>
       </c>
       <c r="T5">
-        <v>0.02448217666506506</v>
+        <v>0.01458956175292804</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.37533553531486</v>
+        <v>5.760185333333332</v>
       </c>
       <c r="H6">
-        <v>5.37533553531486</v>
+        <v>17.280556</v>
       </c>
       <c r="I6">
-        <v>0.02564972730600315</v>
+        <v>0.02453880449425047</v>
       </c>
       <c r="J6">
-        <v>0.02564972730600315</v>
+        <v>0.02453880449425047</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.715570139576844</v>
+        <v>24.596449</v>
       </c>
       <c r="N6">
-        <v>0.715570139576844</v>
+        <v>73.78934699999999</v>
       </c>
       <c r="O6">
-        <v>0.03983105988090491</v>
+        <v>0.9486446866357434</v>
       </c>
       <c r="P6">
-        <v>0.03983105988090491</v>
+        <v>0.9486446866357433</v>
       </c>
       <c r="Q6">
-        <v>3.846429599277624</v>
+        <v>141.6801047818813</v>
       </c>
       <c r="R6">
-        <v>3.846429599277624</v>
+        <v>1275.120943036932</v>
       </c>
       <c r="S6">
-        <v>0.001021655824254293</v>
+        <v>0.02327860649986401</v>
       </c>
       <c r="T6">
-        <v>0.001021655824254293</v>
+        <v>0.02327860649986401</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.37533553531486</v>
+        <v>5.760185333333332</v>
       </c>
       <c r="H7">
-        <v>5.37533553531486</v>
+        <v>17.280556</v>
       </c>
       <c r="I7">
-        <v>0.02564972730600315</v>
+        <v>0.02453880449425047</v>
       </c>
       <c r="J7">
-        <v>0.02564972730600315</v>
+        <v>0.02453880449425047</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.102185072369319</v>
+        <v>0.01112833333333333</v>
       </c>
       <c r="N7">
-        <v>0.102185072369319</v>
+        <v>0.033385</v>
       </c>
       <c r="O7">
-        <v>0.005687967553933769</v>
+        <v>0.0004292015602649837</v>
       </c>
       <c r="P7">
-        <v>0.005687967553933769</v>
+        <v>0.0004292015602649837</v>
       </c>
       <c r="Q7">
-        <v>0.549279050685521</v>
+        <v>0.0641012624511111</v>
       </c>
       <c r="R7">
-        <v>0.549279050685521</v>
+        <v>0.5769113620599998</v>
       </c>
       <c r="S7">
-        <v>0.0001458948166837949</v>
+        <v>1.05320931759697E-05</v>
       </c>
       <c r="T7">
-        <v>0.0001458948166837949</v>
+        <v>1.05320931759697E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.69802810315161</v>
+        <v>5.760185333333332</v>
       </c>
       <c r="H8">
-        <v>1.69802810315161</v>
+        <v>17.280556</v>
       </c>
       <c r="I8">
-        <v>0.008102556113498022</v>
+        <v>0.02453880449425047</v>
       </c>
       <c r="J8">
-        <v>0.008102556113498022</v>
+        <v>0.02453880449425047</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.1473740544204</v>
+        <v>0.8912923333333334</v>
       </c>
       <c r="N8">
-        <v>17.1473740544204</v>
+        <v>2.673877</v>
       </c>
       <c r="O8">
-        <v>0.9544809725651613</v>
+        <v>0.03437568310189169</v>
       </c>
       <c r="P8">
-        <v>0.9544809725651613</v>
+        <v>0.03437568310189169</v>
       </c>
       <c r="Q8">
-        <v>29.11672303965861</v>
+        <v>5.13400902617911</v>
       </c>
       <c r="R8">
-        <v>29.11672303965861</v>
+        <v>46.206081235612</v>
       </c>
       <c r="S8">
-        <v>0.007733735639475385</v>
+        <v>0.0008435381669936297</v>
       </c>
       <c r="T8">
-        <v>0.007733735639475385</v>
+        <v>0.0008435381669936297</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.69802810315161</v>
+        <v>5.760185333333332</v>
       </c>
       <c r="H9">
-        <v>1.69802810315161</v>
+        <v>17.280556</v>
       </c>
       <c r="I9">
-        <v>0.008102556113498022</v>
+        <v>0.02453880449425047</v>
       </c>
       <c r="J9">
-        <v>0.008102556113498022</v>
+        <v>0.02453880449425047</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.715570139576844</v>
+        <v>0.4291193333333334</v>
       </c>
       <c r="N9">
-        <v>0.715570139576844</v>
+        <v>1.287358</v>
       </c>
       <c r="O9">
-        <v>0.03983105988090491</v>
+        <v>0.01655042870210002</v>
       </c>
       <c r="P9">
-        <v>0.03983105988090491</v>
+        <v>0.01655042870210001</v>
       </c>
       <c r="Q9">
-        <v>1.215058206777601</v>
+        <v>2.471806890116444</v>
       </c>
       <c r="R9">
-        <v>1.215058206777601</v>
+        <v>22.246262011048</v>
       </c>
       <c r="S9">
-        <v>0.0003227333977451319</v>
+        <v>0.0004061277342168638</v>
       </c>
       <c r="T9">
-        <v>0.0003227333977451319</v>
+        <v>0.0004061277342168638</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.69802810315161</v>
+        <v>1.762893333333333</v>
       </c>
       <c r="H10">
-        <v>1.69802810315161</v>
+        <v>5.288679999999999</v>
       </c>
       <c r="I10">
-        <v>0.008102556113498022</v>
+        <v>0.00751005260204895</v>
       </c>
       <c r="J10">
-        <v>0.008102556113498022</v>
+        <v>0.007510052602048949</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.102185072369319</v>
+        <v>24.596449</v>
       </c>
       <c r="N10">
-        <v>0.102185072369319</v>
+        <v>73.78934699999999</v>
       </c>
       <c r="O10">
-        <v>0.005687967553933769</v>
+        <v>0.9486446866357434</v>
       </c>
       <c r="P10">
-        <v>0.005687967553933769</v>
+        <v>0.9486446866357433</v>
       </c>
       <c r="Q10">
-        <v>0.1735131246056847</v>
+        <v>43.36091596577332</v>
       </c>
       <c r="R10">
-        <v>0.1735131246056847</v>
+        <v>390.2482436919599</v>
       </c>
       <c r="S10">
-        <v>4.608707627750445E-05</v>
+        <v>0.007124371497288676</v>
       </c>
       <c r="T10">
-        <v>4.608707627750445E-05</v>
+        <v>0.007124371497288675</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.2705962055521</v>
+        <v>1.762893333333333</v>
       </c>
       <c r="H11">
-        <v>10.2705962055521</v>
+        <v>5.288679999999999</v>
       </c>
       <c r="I11">
-        <v>0.04900866005698585</v>
+        <v>0.00751005260204895</v>
       </c>
       <c r="J11">
-        <v>0.04900866005698585</v>
+        <v>0.007510052602048949</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>17.1473740544204</v>
+        <v>0.01112833333333333</v>
       </c>
       <c r="N11">
-        <v>17.1473740544204</v>
+        <v>0.033385</v>
       </c>
       <c r="O11">
-        <v>0.9544809725651613</v>
+        <v>0.0004292015602649837</v>
       </c>
       <c r="P11">
-        <v>0.9544809725651613</v>
+        <v>0.0004292015602649837</v>
       </c>
       <c r="Q11">
-        <v>176.1137548985127</v>
+        <v>0.01961806464444444</v>
       </c>
       <c r="R11">
-        <v>176.1137548985127</v>
+        <v>0.1765625818</v>
       </c>
       <c r="S11">
-        <v>0.04677783351530723</v>
+        <v>3.22332629447151E-06</v>
       </c>
       <c r="T11">
-        <v>0.04677783351530723</v>
+        <v>3.22332629447151E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.2705962055521</v>
+        <v>1.762893333333333</v>
       </c>
       <c r="H12">
-        <v>10.2705962055521</v>
+        <v>5.288679999999999</v>
       </c>
       <c r="I12">
-        <v>0.04900866005698585</v>
+        <v>0.00751005260204895</v>
       </c>
       <c r="J12">
-        <v>0.04900866005698585</v>
+        <v>0.007510052602048949</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.715570139576844</v>
+        <v>0.8912923333333334</v>
       </c>
       <c r="N12">
-        <v>0.715570139576844</v>
+        <v>2.673877</v>
       </c>
       <c r="O12">
-        <v>0.03983105988090491</v>
+        <v>0.03437568310189169</v>
       </c>
       <c r="P12">
-        <v>0.03983105988090491</v>
+        <v>0.03437568310189169</v>
       </c>
       <c r="Q12">
-        <v>7.34933196034432</v>
+        <v>1.571253312484444</v>
       </c>
       <c r="R12">
-        <v>7.34933196034432</v>
+        <v>14.14127981236</v>
       </c>
       <c r="S12">
-        <v>0.001952066873412716</v>
+        <v>0.0002581631883265718</v>
       </c>
       <c r="T12">
-        <v>0.001952066873412716</v>
+        <v>0.0002581631883265718</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.2705962055521</v>
+        <v>1.762893333333333</v>
       </c>
       <c r="H13">
-        <v>10.2705962055521</v>
+        <v>5.288679999999999</v>
       </c>
       <c r="I13">
-        <v>0.04900866005698585</v>
+        <v>0.00751005260204895</v>
       </c>
       <c r="J13">
-        <v>0.04900866005698585</v>
+        <v>0.007510052602048949</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.102185072369319</v>
+        <v>0.4291193333333334</v>
       </c>
       <c r="N13">
-        <v>0.102185072369319</v>
+        <v>1.287358</v>
       </c>
       <c r="O13">
-        <v>0.005687967553933769</v>
+        <v>0.01655042870210002</v>
       </c>
       <c r="P13">
-        <v>0.005687967553933769</v>
+        <v>0.01655042870210001</v>
       </c>
       <c r="Q13">
-        <v>1.049501616540394</v>
+        <v>0.7564916119377778</v>
       </c>
       <c r="R13">
-        <v>1.049501616540394</v>
+        <v>6.808424507439999</v>
       </c>
       <c r="S13">
-        <v>0.0002787596682659054</v>
+        <v>0.0001242945901392319</v>
       </c>
       <c r="T13">
-        <v>0.0002787596682659054</v>
+        <v>0.0001242945901392318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>20.28826266666667</v>
+      </c>
+      <c r="H14">
+        <v>60.864788</v>
+      </c>
+      <c r="I14">
+        <v>0.08642946056342184</v>
+      </c>
+      <c r="J14">
+        <v>0.08642946056342182</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>24.596449</v>
+      </c>
+      <c r="N14">
+        <v>73.78934699999999</v>
+      </c>
+      <c r="O14">
+        <v>0.9486446866357434</v>
+      </c>
+      <c r="P14">
+        <v>0.9486446866357433</v>
+      </c>
+      <c r="Q14">
+        <v>499.0192179792706</v>
+      </c>
+      <c r="R14">
+        <v>4491.172961813436</v>
+      </c>
+      <c r="S14">
+        <v>0.08199084853228365</v>
+      </c>
+      <c r="T14">
+        <v>0.08199084853228363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>20.28826266666667</v>
+      </c>
+      <c r="H15">
+        <v>60.864788</v>
+      </c>
+      <c r="I15">
+        <v>0.08642946056342184</v>
+      </c>
+      <c r="J15">
+        <v>0.08642946056342182</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.01112833333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.033385</v>
+      </c>
+      <c r="O15">
+        <v>0.0004292015602649837</v>
+      </c>
+      <c r="P15">
+        <v>0.0004292015602649837</v>
+      </c>
+      <c r="Q15">
+        <v>0.2257745497088889</v>
+      </c>
+      <c r="R15">
+        <v>2.03197094738</v>
+      </c>
+      <c r="S15">
+        <v>3.709565932668153E-05</v>
+      </c>
+      <c r="T15">
+        <v>3.709565932668152E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>20.28826266666667</v>
+      </c>
+      <c r="H16">
+        <v>60.864788</v>
+      </c>
+      <c r="I16">
+        <v>0.08642946056342184</v>
+      </c>
+      <c r="J16">
+        <v>0.08642946056342182</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.8912923333333334</v>
+      </c>
+      <c r="N16">
+        <v>2.673877</v>
+      </c>
+      <c r="O16">
+        <v>0.03437568310189169</v>
+      </c>
+      <c r="P16">
+        <v>0.03437568310189169</v>
+      </c>
+      <c r="Q16">
+        <v>18.08277297145289</v>
+      </c>
+      <c r="R16">
+        <v>162.744956743076</v>
+      </c>
+      <c r="S16">
+        <v>0.002971071746995634</v>
+      </c>
+      <c r="T16">
+        <v>0.002971071746995633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>20.28826266666667</v>
+      </c>
+      <c r="H17">
+        <v>60.864788</v>
+      </c>
+      <c r="I17">
+        <v>0.08642946056342184</v>
+      </c>
+      <c r="J17">
+        <v>0.08642946056342182</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4291193333333334</v>
+      </c>
+      <c r="N17">
+        <v>1.287358</v>
+      </c>
+      <c r="O17">
+        <v>0.01655042870210002</v>
+      </c>
+      <c r="P17">
+        <v>0.01655042870210001</v>
+      </c>
+      <c r="Q17">
+        <v>8.706085750011557</v>
+      </c>
+      <c r="R17">
+        <v>78.35477175010401</v>
+      </c>
+      <c r="S17">
+        <v>0.001430444624815878</v>
+      </c>
+      <c r="T17">
+        <v>0.001430444624815878</v>
       </c>
     </row>
   </sheetData>
